--- a/Gemeentes.xlsx
+++ b/Gemeentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottehenneman/Library/Mobile Documents/com~apple~CloudDocs/Studie/Transport, Infrastructure and Logistics/Y1/Q1/TIL Programming/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA739C0-AAB3-F845-9DDA-0E835CA9F65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F04F7B-CC37-9A43-8CC1-42716AEB08FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{5A1C1CA2-977D-A448-BC78-2F74CC452B85}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17340" xr2:uid="{5A1C1CA2-977D-A448-BC78-2F74CC452B85}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="12">
   <si>
     <t>Gooise Meren</t>
   </si>
@@ -70,12 +70,15 @@
   <si>
     <t>Region</t>
   </si>
+  <si>
+    <t xml:space="preserve">Inhabitants </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,12 +97,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -123,11 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -465,7 +461,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,7 +482,9 @@
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -501,7 +499,9 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>57715</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -516,7 +516,9 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>58055</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -531,7 +533,9 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>58524</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -546,7 +550,9 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>58846</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -561,7 +567,9 @@
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>60341</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -576,7 +584,9 @@
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>60370</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -591,7 +601,9 @@
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>61003</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -606,7 +618,9 @@
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>57715</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -621,7 +635,9 @@
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>58055</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -636,7 +652,9 @@
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>58524</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -651,7 +669,9 @@
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>58846</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -666,7 +686,9 @@
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2">
+        <v>60341</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -681,7 +703,9 @@
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2">
+        <v>60370</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -696,7 +720,9 @@
       <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2">
+        <v>61003</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -711,7 +737,9 @@
       <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>537833</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -726,7 +754,9 @@
       <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>545838</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -741,7 +771,9 @@
       <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>548320</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -756,7 +788,9 @@
       <c r="D19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>553417</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -771,7 +805,9 @@
       <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <v>562839</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -786,7 +822,9 @@
       <c r="D21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>566221</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -801,7 +839,9 @@
       <c r="D22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>568945</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -816,7 +856,9 @@
       <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2">
+        <v>537833</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -831,7 +873,9 @@
       <c r="D24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>545838</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -846,7 +890,9 @@
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>548320</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -861,7 +907,9 @@
       <c r="D26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <v>553417</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -876,7 +924,9 @@
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>562839</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -891,7 +941,9 @@
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>566221</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -906,7 +958,9 @@
       <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>568945</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -921,7 +975,9 @@
       <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2">
+        <v>123107</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -936,7 +992,9 @@
       <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2">
+        <v>124084</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -951,7 +1009,9 @@
       <c r="D32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>124481</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -966,7 +1026,9 @@
       <c r="D33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>125504</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -981,7 +1043,9 @@
       <c r="D34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2">
+        <v>127073</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -996,7 +1060,9 @@
       <c r="D35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>128810</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -1011,7 +1077,9 @@
       <c r="D36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2">
+        <v>129973</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -1026,7 +1094,9 @@
       <c r="D37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2">
+        <v>123107</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1041,7 +1111,9 @@
       <c r="D38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2">
+        <v>124084</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -1056,7 +1128,9 @@
       <c r="D39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2">
+        <v>124481</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -1071,7 +1145,9 @@
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2">
+        <v>125504</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -1086,7 +1162,9 @@
       <c r="D41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2">
+        <v>127073</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1101,7 +1179,9 @@
       <c r="D42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2">
+        <v>128810</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -1116,7 +1196,9 @@
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2">
+        <v>129973</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -1131,7 +1213,9 @@
       <c r="D44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2">
+        <v>176731</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1146,7 +1230,9 @@
       <c r="D45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2">
+        <v>177659</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1161,7 +1247,9 @@
       <c r="D46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2">
+        <v>177359</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1176,7 +1264,9 @@
       <c r="D47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2">
+        <v>179100</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1191,7 +1281,9 @@
       <c r="D48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="2">
+        <v>182480</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1206,7 +1298,9 @@
       <c r="D49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2">
+        <v>187049</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1221,7 +1315,9 @@
       <c r="D50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2">
+        <v>189007</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1236,7 +1332,9 @@
       <c r="D51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2">
+        <v>176731</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1251,7 +1349,9 @@
       <c r="D52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2">
+        <v>177659</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
@@ -1266,7 +1366,9 @@
       <c r="D53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2">
+        <v>177359</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -1281,7 +1383,9 @@
       <c r="D54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2">
+        <v>179100</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
@@ -1296,7 +1400,9 @@
       <c r="D55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="2"/>
+      <c r="E55" s="2">
+        <v>182480</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1311,7 +1417,9 @@
       <c r="D56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="2"/>
+      <c r="E56" s="2">
+        <v>187049</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -1326,7 +1434,9 @@
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2">
+        <v>189007</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -1341,7 +1451,9 @@
       <c r="D58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2">
+        <v>644618</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -1356,7 +1468,9 @@
       <c r="D59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="2"/>
+      <c r="E59" s="2">
+        <v>651157</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -1371,7 +1485,9 @@
       <c r="D60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2">
+        <v>651631</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
@@ -1386,7 +1502,9 @@
       <c r="D61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="2"/>
+      <c r="E61" s="2">
+        <v>655468</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -1401,7 +1519,9 @@
       <c r="D62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="2"/>
+      <c r="E62" s="2">
+        <v>663900</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -1416,7 +1536,9 @@
       <c r="D63" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="2"/>
+      <c r="E63" s="2">
+        <v>670610</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -1431,9 +1553,11 @@
       <c r="D64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="2">
+        <v>672960</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -1446,8 +1570,11 @@
       <c r="D65" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="2">
+        <v>644618</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -1460,8 +1587,11 @@
       <c r="D66" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="2">
+        <v>651157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -1474,8 +1604,11 @@
       <c r="D67" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="2">
+        <v>651631</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -1488,8 +1621,11 @@
       <c r="D68" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="2">
+        <v>655468</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -1502,8 +1638,11 @@
       <c r="D69" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" s="2">
+        <v>663900</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -1516,8 +1655,11 @@
       <c r="D70" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" s="2">
+        <v>670610</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
@@ -1530,11 +1672,14 @@
       <c r="D71" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" s="2">
+        <v>672960</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
     </row>
   </sheetData>
